--- a/UseCaseConfigFile/TestData/PegaTestData.xlsx
+++ b/UseCaseConfigFile/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BC4E04D7-14C8-49E1-A4A4-F2766510186C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D5A2603D-3A9D-4550-AFA2-128AE83BD6CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15585" windowHeight="11820" tabRatio="731" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15465" windowHeight="11820" tabRatio="731" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -905,7 +905,7 @@
     <t>Track1</t>
   </si>
   <si>
-    <t>DPF_MMC_NBA_ONB</t>
+    <t>DPF_MMC_NBA_ONB_20200804</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:W123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1303,7 @@
     <col min="14" max="14" width="18.28515625" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="20" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="21" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="32.42578125" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="12.85546875" customWidth="1" collapsed="1"/>
